--- a/módulo 05/exercicio-proposto-formulas.xlsx
+++ b/módulo 05/exercicio-proposto-formulas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\05 Primeiras fórmulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="14" r:id="rId1"/>
@@ -601,7 +601,880 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="11">
+        <f ca="1">TODAY()</f>
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>805</v>
+      </c>
+      <c r="D3" s="3">
+        <v>106</v>
+      </c>
+      <c r="E3" s="13">
+        <v>43793</v>
+      </c>
+      <c r="F3" s="14">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9">
+        <f>E3+(F3*30)</f>
+        <v>44153</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f ca="1">IF(G3&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12" t="str">
+        <f>IF(C3&lt;D3,"Sim","Não")</f>
+        <v>Não</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>IF(J3="Sim",CONCATENATE("Pedido de : ", D3*2," uni")," -- ")</f>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>613</v>
+      </c>
+      <c r="D4" s="3">
+        <v>107</v>
+      </c>
+      <c r="E4" s="13">
+        <v>43524</v>
+      </c>
+      <c r="F4" s="14">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9">
+        <f>E4+(F4*30)</f>
+        <v>45624</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f ca="1">IF(G4&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Em dia</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f ca="1">IF(AND(H4="Em dia",G4&lt;$K$1+90),"Prioridade"," --")</f>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f t="shared" ref="J4:J22" si="0">IF(C4&lt;D4,"Sim","Não")</f>
+        <v>Não</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K22" si="1">IF(J4="Sim",CONCATENATE("Pedido de : ", D4*2," uni")," -- ")</f>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3">
+        <v>112</v>
+      </c>
+      <c r="E5" s="13">
+        <v>44219</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G22" si="2">E5+(F5*30)</f>
+        <v>45569</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f ca="1">IF(G5&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Em dia</v>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" ref="I5:I22" ca="1" si="3">IF(AND(H5="Em dia",G5&lt;$K$1+90),"Prioridade"," --")</f>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sim</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedido de : 224 uni</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>635</v>
+      </c>
+      <c r="D6" s="3">
+        <v>65</v>
+      </c>
+      <c r="E6" s="13">
+        <v>43322</v>
+      </c>
+      <c r="F6" s="14">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
+        <v>43682</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f t="shared" ref="H6:H19" ca="1" si="4">IF(G6&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>386</v>
+      </c>
+      <c r="D7" s="3">
+        <v>87</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43550</v>
+      </c>
+      <c r="F7" s="14">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="2"/>
+        <v>43910</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I7" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>458</v>
+      </c>
+      <c r="D8" s="3">
+        <v>77</v>
+      </c>
+      <c r="E8" s="13">
+        <v>44304</v>
+      </c>
+      <c r="F8" s="14">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
+        <v>44664</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>356</v>
+      </c>
+      <c r="D9" s="3">
+        <v>93</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45074</v>
+      </c>
+      <c r="F9" s="14">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
+        <v>45434</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Em dia</v>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Prioridade</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>364</v>
+      </c>
+      <c r="D10" s="3">
+        <v>162</v>
+      </c>
+      <c r="E10" s="13">
+        <v>43523</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>43703</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3">
+        <v>92</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43710</v>
+      </c>
+      <c r="F11" s="14">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>44070</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sim</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedido de : 184 uni</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>835</v>
+      </c>
+      <c r="D12" s="3">
+        <v>135</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43776</v>
+      </c>
+      <c r="F12" s="14">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
+        <v>44136</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>582</v>
+      </c>
+      <c r="D13" s="3">
+        <v>187</v>
+      </c>
+      <c r="E13" s="13">
+        <v>44659</v>
+      </c>
+      <c r="F13" s="14">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
+        <v>45019</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3">
+        <v>63</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43719</v>
+      </c>
+      <c r="F14" s="14">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
+        <v>44439</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sim</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedido de : 126 uni</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>435</v>
+      </c>
+      <c r="D15" s="3">
+        <v>175</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43787</v>
+      </c>
+      <c r="F15" s="14">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
+        <v>44507</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>621</v>
+      </c>
+      <c r="D16" s="3">
+        <v>115</v>
+      </c>
+      <c r="E16" s="13">
+        <v>45107</v>
+      </c>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
+        <v>45407</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Em dia</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Prioridade</v>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>891</v>
+      </c>
+      <c r="D17" s="3">
+        <v>92</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43716</v>
+      </c>
+      <c r="F17" s="14">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
+        <v>44436</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f>IF(C17&lt;D17,"Sim","Não")</f>
+        <v>Não</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>746</v>
+      </c>
+      <c r="D18" s="3">
+        <v>131</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43587</v>
+      </c>
+      <c r="F18" s="14">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>43947</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>292</v>
+      </c>
+      <c r="D19" s="3">
+        <v>193</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45338</v>
+      </c>
+      <c r="F19" s="14">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="2"/>
+        <v>45518</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Em dia</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>223</v>
+      </c>
+      <c r="D20" s="3">
+        <v>139</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43519</v>
+      </c>
+      <c r="F20" s="14">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="2"/>
+        <v>43879</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f ca="1">IF(G20&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>693</v>
+      </c>
+      <c r="D21" s="3">
+        <v>128</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43170</v>
+      </c>
+      <c r="F21" s="14">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="2"/>
+        <v>43890</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f ca="1">IF(G21&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3">
+        <v>135</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43653</v>
+      </c>
+      <c r="F22" s="14">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="2"/>
+        <v>44373</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f t="shared" ref="H22" ca="1" si="5">IF(G22&gt;TODAY(),"Em dia","Vencido")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I22" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve"> --</v>
+      </c>
+      <c r="J22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Não</v>
+      </c>
+      <c r="K22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> -- </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,7 +1494,10 @@
       <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="11">
+        <f ca="1">TODAY()</f>
+        <v>45352</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -677,11 +1553,26 @@
       <c r="F3" s="14">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G10" si="0">E3+(F3*30)</f>
+        <v>44153</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f t="shared" ref="H3:H22" ca="1" si="1">IF(G3&lt;$K$1,"Vencido","")</f>
+        <v>Vencido</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f ca="1">IF(AND(H3="",G3&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="12" t="str">
+        <f>IF(C3&lt;=D3,"Sim","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>IF(J3="Sim",CONCATENATE("Pedido de : ",2*D3," un."),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -702,11 +1593,26 @@
       <c r="F4" s="14">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f ca="1">IF(AND(H4="",G4&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f t="shared" ref="J4:J22" si="2">IF(C4&lt;=D4,"Sim","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K22" si="3">IF(J4="Sim",CONCATENATE("Pedido de : ",2*D4," un."),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -727,11 +1633,26 @@
       <c r="F5" s="14">
         <v>24</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>44328</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" ref="I5:I22" ca="1" si="4">IF(AND(H5="",G5&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>IF(C5&lt;=D5,"Sim","")</f>
+        <v>Sim</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Pedido de : 224 un.</v>
+      </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -753,11 +1674,26 @@
       <c r="F6" s="14">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>43682</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -778,11 +1714,26 @@
       <c r="F7" s="14">
         <v>12</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>43910</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I7" s="15" t="str">
+        <f ca="1">IF(AND(H7="",G7&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -803,11 +1754,26 @@
       <c r="F8" s="14">
         <v>12</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>43933</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -828,11 +1794,26 @@
       <c r="F9" s="14">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>43973</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f ca="1">IF(AND(H9="",G9&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -853,11 +1834,26 @@
       <c r="F10" s="14">
         <v>6</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>43703</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -878,11 +1874,26 @@
       <c r="F11" s="14">
         <v>12</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="9">
+        <f t="shared" ref="G11:G22" si="5">E11+(F11*30)</f>
+        <v>44070</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f ca="1">IF(AND(H11="",G11&lt;$K$1+90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Sim</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Pedido de : 184 un.</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -903,11 +1914,26 @@
       <c r="F12" s="14">
         <v>12</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="9">
+        <f t="shared" si="5"/>
+        <v>44136</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -928,11 +1954,26 @@
       <c r="F13" s="14">
         <v>12</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="G13" s="9">
+        <f t="shared" si="5"/>
+        <v>43923</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -953,11 +1994,26 @@
       <c r="F14" s="14">
         <v>24</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="G14" s="9">
+        <f t="shared" si="5"/>
+        <v>44439</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Sim</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Pedido de : 126 un.</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -978,11 +2034,26 @@
       <c r="F15" s="14">
         <v>24</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="G15" s="9">
+        <f t="shared" si="5"/>
+        <v>44507</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1003,11 +2074,26 @@
       <c r="F16" s="14">
         <v>24</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="G16" s="9">
+        <f t="shared" si="5"/>
+        <v>44392</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1028,11 +2114,26 @@
       <c r="F17" s="14">
         <v>24</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="G17" s="9">
+        <f t="shared" si="5"/>
+        <v>44436</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1053,11 +2154,26 @@
       <c r="F18" s="14">
         <v>12</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="9">
+        <f t="shared" si="5"/>
+        <v>43947</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1078,11 +2194,26 @@
       <c r="F19" s="14">
         <v>12</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="9">
+        <f t="shared" si="5"/>
+        <v>43780</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1103,11 +2234,26 @@
       <c r="F20" s="14">
         <v>12</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="9">
+        <f t="shared" si="5"/>
+        <v>43879</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1128,11 +2274,26 @@
       <c r="F21" s="14">
         <v>24</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="G21" s="9">
+        <f t="shared" si="5"/>
+        <v>43890</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1153,879 +2314,24 @@
       <c r="F22" s="14">
         <v>24</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="11">
-        <f ca="1">TODAY()</f>
-        <v>43801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>805</v>
-      </c>
-      <c r="D3" s="3">
-        <v>106</v>
-      </c>
-      <c r="E3" s="13">
-        <v>43793</v>
-      </c>
-      <c r="F3" s="14">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G10" si="0">E3+(F3*30)</f>
-        <v>44153</v>
-      </c>
-      <c r="H3" s="16" t="str">
-        <f t="shared" ref="H3:H22" ca="1" si="1">IF(G3&lt;$K$1,"Vencido","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="15" t="str">
-        <f ca="1">IF(AND(H3="",G3&lt;$K$1+90),"Prioridade","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="12" t="str">
-        <f>IF(C3&lt;=D3,"Sim","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f>IF(J3="Sim",CONCATENATE("Pedido de : ",2*D3," un."),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>613</v>
-      </c>
-      <c r="D4" s="3">
-        <v>107</v>
-      </c>
-      <c r="E4" s="13">
-        <v>43511</v>
-      </c>
-      <c r="F4" s="14">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>43871</v>
-      </c>
-      <c r="H4" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" ref="I4:I22" ca="1" si="2">IF(AND(H4="",G4&lt;$K$1+90),"Prioridade","")</f>
-        <v>Prioridade</v>
-      </c>
-      <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J22" si="3">IF(C4&lt;=D4,"Sim","")</f>
-        <v/>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" ref="K4:K22" si="4">IF(J4="Sim",CONCATENATE("Pedido de : ",2*D4," un."),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3">
-        <v>112</v>
-      </c>
-      <c r="E5" s="13">
-        <v>43608</v>
-      </c>
-      <c r="F5" s="14">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>44328</v>
-      </c>
-      <c r="H5" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I5" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J5" s="12" t="str">
-        <f>IF(C5&lt;=D5,"Sim","")</f>
-        <v>Sim</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Pedido de : 224 un.</v>
-      </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>635</v>
-      </c>
-      <c r="D6" s="3">
-        <v>65</v>
-      </c>
-      <c r="E6" s="13">
-        <v>43322</v>
-      </c>
-      <c r="F6" s="14">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>43682</v>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
-      </c>
-      <c r="I6" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J6" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>386</v>
-      </c>
-      <c r="D7" s="3">
-        <v>87</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43550</v>
-      </c>
-      <c r="F7" s="14">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>43910</v>
-      </c>
-      <c r="H7" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I7" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J7" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>458</v>
-      </c>
-      <c r="D8" s="3">
-        <v>77</v>
-      </c>
-      <c r="E8" s="13">
-        <v>43573</v>
-      </c>
-      <c r="F8" s="14">
-        <v>12</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="0"/>
-        <v>43933</v>
-      </c>
-      <c r="H8" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I8" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <v>356</v>
-      </c>
-      <c r="D9" s="3">
-        <v>93</v>
-      </c>
-      <c r="E9" s="13">
-        <v>43613</v>
-      </c>
-      <c r="F9" s="14">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>43973</v>
-      </c>
-      <c r="H9" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>364</v>
-      </c>
-      <c r="D10" s="3">
-        <v>162</v>
-      </c>
-      <c r="E10" s="13">
-        <v>43523</v>
-      </c>
-      <c r="F10" s="14">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>43703</v>
-      </c>
-      <c r="H10" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
-      </c>
-      <c r="I10" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>90</v>
-      </c>
-      <c r="D11" s="3">
-        <v>92</v>
-      </c>
-      <c r="E11" s="13">
-        <v>43710</v>
-      </c>
-      <c r="F11" s="14">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" ref="G11:G22" si="5">E11+(F11*30)</f>
-        <v>44070</v>
-      </c>
-      <c r="H11" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I11" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Sim</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Pedido de : 184 un.</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>835</v>
-      </c>
-      <c r="D12" s="3">
-        <v>135</v>
-      </c>
-      <c r="E12" s="13">
-        <v>43776</v>
-      </c>
-      <c r="F12" s="14">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="5"/>
-        <v>44136</v>
-      </c>
-      <c r="H12" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>582</v>
-      </c>
-      <c r="D13" s="3">
-        <v>187</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43563</v>
-      </c>
-      <c r="F13" s="14">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" si="5"/>
-        <v>43923</v>
-      </c>
-      <c r="H13" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>49</v>
-      </c>
-      <c r="D14" s="3">
-        <v>63</v>
-      </c>
-      <c r="E14" s="13">
-        <v>43719</v>
-      </c>
-      <c r="F14" s="14">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="5"/>
-        <v>44439</v>
-      </c>
-      <c r="H14" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I14" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Sim</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Pedido de : 126 un.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>435</v>
-      </c>
-      <c r="D15" s="3">
-        <v>175</v>
-      </c>
-      <c r="E15" s="13">
-        <v>43787</v>
-      </c>
-      <c r="F15" s="14">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="5"/>
-        <v>44507</v>
-      </c>
-      <c r="H15" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I15" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>621</v>
-      </c>
-      <c r="D16" s="3">
-        <v>115</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43672</v>
-      </c>
-      <c r="F16" s="14">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="5"/>
-        <v>44392</v>
-      </c>
-      <c r="H16" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I16" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3">
-        <v>891</v>
-      </c>
-      <c r="D17" s="3">
-        <v>92</v>
-      </c>
-      <c r="E17" s="13">
-        <v>43716</v>
-      </c>
-      <c r="F17" s="14">
-        <v>24</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="5"/>
-        <v>44436</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I17" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>746</v>
-      </c>
-      <c r="D18" s="3">
-        <v>131</v>
-      </c>
-      <c r="E18" s="13">
-        <v>43587</v>
-      </c>
-      <c r="F18" s="14">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="5"/>
-        <v>43947</v>
-      </c>
-      <c r="H18" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I18" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K18" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>292</v>
-      </c>
-      <c r="D19" s="3">
-        <v>193</v>
-      </c>
-      <c r="E19" s="13">
-        <v>43420</v>
-      </c>
-      <c r="F19" s="14">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="5"/>
-        <v>43780</v>
-      </c>
-      <c r="H19" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
-      </c>
-      <c r="I19" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>223</v>
-      </c>
-      <c r="D20" s="3">
-        <v>139</v>
-      </c>
-      <c r="E20" s="13">
-        <v>43519</v>
-      </c>
-      <c r="F20" s="14">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="5"/>
-        <v>43879</v>
-      </c>
-      <c r="H20" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Prioridade</v>
-      </c>
-      <c r="J20" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K20" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>693</v>
-      </c>
-      <c r="D21" s="3">
-        <v>128</v>
-      </c>
-      <c r="E21" s="13">
-        <v>43170</v>
-      </c>
-      <c r="F21" s="14">
-        <v>24</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="5"/>
-        <v>43890</v>
-      </c>
-      <c r="H21" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Prioridade</v>
-      </c>
-      <c r="J21" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K21" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3">
-        <v>135</v>
-      </c>
-      <c r="D22" s="3">
-        <v>135</v>
-      </c>
-      <c r="E22" s="13">
-        <v>43653</v>
-      </c>
-      <c r="F22" s="14">
-        <v>24</v>
-      </c>
       <c r="G22" s="9">
         <f t="shared" si="5"/>
         <v>44373</v>
       </c>
       <c r="H22" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I22" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J22" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Sim</v>
+      </c>
+      <c r="K22" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Sim</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <f t="shared" si="4"/>
         <v>Pedido de : 270 un.</v>
       </c>
     </row>
